--- a/data/trans_orig/IP12BS03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP12BS03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D3CDB32-D7F3-49C2-B6EE-9F9A65B63FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEEB893E-E146-463E-BE7F-D39D4C8F7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8ED65FA-6936-4050-9285-0D37F68E2EB9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{336241D0-BB1B-4AA7-B0E3-3291A8F1687A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="78">
   <si>
     <t>Menores según el tipo de dolor sufrido que le limita 3 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -154,7 +154,7 @@
     <t>16,22%</t>
   </si>
   <si>
-    <t>80,45%</t>
+    <t>75,87%</t>
   </si>
   <si>
     <t>60,58%</t>
@@ -163,7 +163,7 @@
     <t>24,93%</t>
   </si>
   <si>
-    <t>82,78%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>65,05%</t>
@@ -172,16 +172,13 @@
     <t>38,28%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
     <t>34,95%</t>
   </si>
   <si>
     <t>20,57%</t>
   </si>
   <si>
-    <t>78,51%</t>
+    <t>83,54%</t>
   </si>
   <si>
     <t>50,21%</t>
@@ -208,7 +205,7 @@
     <t>10,35%</t>
   </si>
   <si>
-    <t>53,81%</t>
+    <t>46,69%</t>
   </si>
   <si>
     <t>38,46%</t>
@@ -217,22 +214,22 @@
     <t>15,9%</t>
   </si>
   <si>
-    <t>58,12%</t>
+    <t>60,82%</t>
   </si>
   <si>
     <t>59,71%</t>
   </si>
   <si>
-    <t>17,53%</t>
+    <t>16,81%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
   </si>
   <si>
     <t>36,52%</t>
@@ -241,34 +238,34 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>56,89%</t>
+    <t>56,33%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>77,77%</t>
+    <t>79,88%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>59,36%</t>
+    <t>50,78%</t>
   </si>
   <si>
     <t>22,37%</t>
   </si>
   <si>
-    <t>79,2%</t>
+    <t>83,19%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>Menores según el tipo de dolor sufrido que le limita 3 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>46,87%</t>
@@ -686,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1920F093-F011-42ED-AC46-4C4C2F696FEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7E7236-FCFB-485F-943C-33AECF7C8B63}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2409,7 +2406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C8C69-D786-4FF1-A9A0-CF87962E6537}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4A3143-8146-4363-A79D-D203F78FA90C}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3084,7 +3081,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3216,7 +3213,7 @@
         <v>818</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
@@ -3231,13 +3228,13 @@
         <v>818</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3470,7 @@
         <v>661</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
@@ -3488,7 +3485,7 @@
         <v>661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
@@ -3539,7 +3536,7 @@
         <v>942</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
@@ -3575,7 +3572,7 @@
         <v>656</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>11</v>
@@ -3590,7 +3587,7 @@
         <v>656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>11</v>
@@ -3751,7 +3748,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,7 +3763,7 @@
         <v>645</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>11</v>
@@ -3796,13 +3793,13 @@
         <v>645</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3814,7 @@
         <v>992</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
@@ -3847,13 +3844,13 @@
         <v>992</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,10 +3880,10 @@
         <v>2184</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>20</v>
@@ -3898,13 +3895,13 @@
         <v>2184</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3916,7 @@
         <v>942</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
@@ -3949,13 +3946,13 @@
         <v>942</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3982,13 @@
         <v>656</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -4000,13 +3997,13 @@
         <v>656</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4033,13 @@
         <v>818</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4051,13 +4048,13 @@
         <v>818</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,7 +4129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDED421-AAF9-4E82-9266-5BB271110505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAD8A18-6CD8-4EE2-BE1A-73764D15708B}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4149,7 +4146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4618,7 +4615,7 @@
         <v>576</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
@@ -4646,7 +4643,7 @@
         <v>576</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
@@ -4765,7 +4762,7 @@
         <v>652</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
@@ -4793,7 +4790,7 @@
         <v>652</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
@@ -5374,7 +5371,7 @@
         <v>576</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
@@ -5402,7 +5399,7 @@
         <v>576</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>11</v>
@@ -5521,7 +5518,7 @@
         <v>652</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>11</v>
@@ -5549,7 +5546,7 @@
         <v>652</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
